--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value362.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value362.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6490147330282512</v>
+        <v>0.991719663143158</v>
       </c>
       <c r="B1">
-        <v>0.9496525117461615</v>
+        <v>3.110146522521973</v>
       </c>
       <c r="C1">
-        <v>1.883005126444018</v>
+        <v>3.958924055099487</v>
       </c>
       <c r="D1">
-        <v>3.330794414617504</v>
+        <v>2.037263631820679</v>
       </c>
       <c r="E1">
-        <v>2.160295506916202</v>
+        <v>1.206307649612427</v>
       </c>
     </row>
   </sheetData>
